--- a/biology/Zoologie/Austremerella_picta/Austremerella_picta.xlsx
+++ b/biology/Zoologie/Austremerella_picta/Austremerella_picta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austremerella picta, unique représentant du genre Austremerella et de la famille des Austremerellidae, est une espèce d'insectes appartenant à l'ordre des Éphéméroptères.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) William Patrick McCafferty et T-Q. Wang, « Phylogenetic systematics of the family Teloganodidae (Ephemeroptera: Pannota) », Annals of the Cape provincial museums. Natural History, Grahamstown, Inconnu, vol. 19, no 9,‎ 20 septembre 1997, p. 387-437 (ISSN 0570-1880, OCLC 8981217, lire en ligne)
 Riek, 1963 : An Australian mayfly of the family Ephemerellidae (Ephemeroptera). Journal of the Australian Entomological Society vol. 2 p. 48-50.</t>
